--- a/iocBoot/ioc13idd_linux/terminal_server_ports.xlsx
+++ b/iocBoot/ioc13idd_linux/terminal_server_ports.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -701,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>11</v>
